--- a/UndergradHomework/HW7/HW7.xlsx
+++ b/UndergradHomework/HW7/HW7.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffery\Jupyter\Undergrad\HW7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsl2883\Google Drive\Grad School\Teaching\PGE 334 Reservoir Geomechanics\Homework\HW7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F897BA15-7545-4938-89EC-5BFDBB76BABD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="21180" windowHeight="8550" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="21180" windowHeight="8550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
@@ -52,7 +51,7 @@
     <definedName name="σv_psi">'Q1'!$N$2:$N$168</definedName>
     <definedName name="ϕ0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,12 +67,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Luo, Jeffery S</author>
   </authors>
   <commentList>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,9 +442,6 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>Fracture Half Length</t>
-  </si>
-  <si>
     <t>Plane-Strain Modulus</t>
   </si>
   <si>
@@ -487,11 +483,14 @@
   <si>
     <t>E' [MMPa]</t>
   </si>
+  <si>
+    <t>Fracture Height</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -651,7 +650,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16593,6 +16592,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16712,6 +16712,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17019,6 +17020,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17132,6 +17134,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17439,6 +17442,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17552,6 +17556,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -26468,7 +26473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN168"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -50518,10 +50523,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -50568,7 +50575,7 @@
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>51</v>
@@ -50587,21 +50594,21 @@
         <v>0</v>
       </c>
       <c r="G2" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F2^(4/5)),0)</f>
+        <f t="shared" ref="G2:G12" si="0">ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F2^(4/5)),0)</f>
         <v>0</v>
       </c>
       <c r="H2" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F2^(1/5))*1000,3)</f>
+        <f t="shared" ref="H2:H12" si="1">ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F2^(1/5))*1000,3)</f>
         <v>0</v>
       </c>
       <c r="I2" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F2^(1/5))/10^6,3)</f>
+        <f t="shared" ref="I2:I12" si="2">ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F2^(1/5))/10^6,3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>46</v>
@@ -50616,25 +50623,25 @@
         <v>0.25</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F12" si="0">E3*60</f>
+        <f t="shared" ref="F3:F12" si="3">E3*60</f>
         <v>15</v>
       </c>
       <c r="G3" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F3^(4/5)),0)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H3" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F3^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>1.6080000000000001</v>
       </c>
       <c r="I3" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F3^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>47</v>
@@ -50649,25 +50656,25 @@
         <v>1</v>
       </c>
       <c r="F4" s="14">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G4" s="15">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G4" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F4^(4/5)),0)</f>
         <v>58</v>
       </c>
       <c r="H4" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F4^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>2.1219999999999999</v>
       </c>
       <c r="I4" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F4^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>1.256</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>48</v>
@@ -50682,25 +50689,25 @@
         <v>2.5</v>
       </c>
       <c r="F5" s="14">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="G5" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F5^(4/5)),0)</f>
         <v>120</v>
       </c>
       <c r="H5" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F5^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>2.548</v>
       </c>
       <c r="I5" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F5^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>1.5089999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>49</v>
@@ -50715,28 +50722,28 @@
         <v>5</v>
       </c>
       <c r="F6" s="14">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="G6" s="15">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G6" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F6^(4/5)),0)</f>
         <v>209</v>
       </c>
       <c r="H6" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F6^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>2.927</v>
       </c>
       <c r="I6" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F6^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>1.7330000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2">
         <f>C2*0.3048</f>
@@ -50749,28 +50756,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="14">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="G7" s="15">
         <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="G7" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F7^(4/5)),0)</f>
         <v>363</v>
       </c>
       <c r="H7" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F7^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>3.363</v>
       </c>
       <c r="I7" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F7^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>1.9910000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20">
         <f>C3*(10^6)*6894.76/10^6</f>
@@ -50783,25 +50790,25 @@
         <v>20</v>
       </c>
       <c r="F8" s="14">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="G8" s="15">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="G8" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F8^(4/5)),0)</f>
         <v>633</v>
       </c>
       <c r="H8" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F8^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>3.863</v>
       </c>
       <c r="I8" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F8^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>2.2869999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>43</v>
@@ -50817,25 +50824,25 @@
         <v>30</v>
       </c>
       <c r="F9" s="14">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="G9" s="15">
         <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="G9" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F9^(4/5)),0)</f>
         <v>875</v>
       </c>
       <c r="H9" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F9^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>4.1890000000000001</v>
       </c>
       <c r="I9" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F9^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>2.48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
@@ -50851,25 +50858,25 @@
         <v>40</v>
       </c>
       <c r="F10" s="14">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="G10" s="15">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G10" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F10^(4/5)),0)</f>
         <v>1102</v>
       </c>
       <c r="H10" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F10^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>4.4370000000000003</v>
       </c>
       <c r="I10" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F10^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>2.6269999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
@@ -50885,25 +50892,25 @@
         <v>50</v>
       </c>
       <c r="F11" s="14">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="G11" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F11^(4/5)),0)</f>
         <v>1317</v>
       </c>
       <c r="H11" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F11^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="I11" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F11^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>2.7469999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>52</v>
@@ -50919,19 +50926,19 @@
         <v>60</v>
       </c>
       <c r="F12" s="14">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="G12" s="15">
         <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="G12" s="15">
-        <f>ROUND(0.524*((((i^3)*E*10^6)/(u*(hf^4)))^(1/5))*(F12^(4/5)),0)</f>
         <v>1524</v>
       </c>
       <c r="H12" s="15">
-        <f>ROUND(3.04*((((i^2)*u)/(E*10^6*hf))^(1/5))*(F12^(1/5))*1000,3)</f>
+        <f t="shared" si="1"/>
         <v>4.8120000000000003</v>
       </c>
       <c r="I12" s="15">
-        <f>ROUND(1.52*(((((E*10^6)^4)*(i^2)*u)/(hf^6))^(1/5))*(F12^(1/5))/10^6,3)</f>
+        <f t="shared" si="2"/>
         <v>2.8490000000000002</v>
       </c>
     </row>
